--- a/JavaBatch8/src/com/syntax/class37/Book1.xlsx
+++ b/JavaBatch8/src/com/syntax/class37/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>FirstName</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>Mccarty</t>
-  </si>
-  <si>
-    <t>Veronica</t>
-  </si>
-  <si>
-    <t>Carty</t>
   </si>
 </sst>
 </file>
@@ -127,7 +121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -250,23 +244,6 @@
       </c>
       <c r="E7" t="n">
         <v>41000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33000.0</v>
       </c>
     </row>
   </sheetData>
@@ -340,7 +317,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,23 +391,6 @@
         <v>33000.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30000.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/JavaBatch8/src/com/syntax/class37/Book1.xlsx
+++ b/JavaBatch8/src/com/syntax/class37/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>Davison</t>
-  </si>
-  <si>
-    <t>Shaurya</t>
-  </si>
-  <si>
-    <t>Mccarty</t>
   </si>
 </sst>
 </file>
@@ -121,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,23 +221,6 @@
       </c>
       <c r="E6" t="n">
         <v>55000.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>41000.0</v>
       </c>
     </row>
   </sheetData>
@@ -317,7 +294,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -374,23 +351,6 @@
         <v>41000.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33000.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
